--- a/data/trans_bre/LAWTONB_2R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_2R2-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.173530324129472</v>
+        <v>5.021407029459624</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-24.33388699297409</v>
+        <v>-24.84374780614005</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.734015672324545</v>
+        <v>-0.575715953378124</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.383253225381463</v>
+        <v>3.573511766759143</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07547861376384496</v>
+        <v>0.1289869853961035</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2126756476627484</v>
+        <v>-0.2344933076037161</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1477767685206333</v>
+        <v>0.2124442449075171</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>46.2062071968536</v>
+        <v>47.34831014949687</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.32003133424212</v>
+        <v>15.55290179208269</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35.75629979687927</v>
+        <v>35.28639469461733</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20.50779603853616</v>
+        <v>20.67805877027965</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.816020301141955</v>
+        <v>4.123877211951748</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.457813286247065</v>
+        <v>1.921454233052804</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6.223321892025028</v>
+        <v>5.830708475806164</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.651817827758296</v>
+        <v>2.662712313536462</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-14.81594583411674</v>
+        <v>-12.97854578954324</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.390759678217364</v>
+        <v>3.362076103754378</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.04217897533283</v>
+        <v>-3.088240875031554</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3498318866517877</v>
+        <v>0.9134234006446319</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5401516974764381</v>
+        <v>-0.5387039969153758</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1539913316202327</v>
+        <v>0.04275717204210966</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.130033745876353</v>
+        <v>-0.1726361105349473</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.01078060861908806</v>
+        <v>0.007034022165544128</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>39.85399133703243</v>
+        <v>38.86776687959648</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>57.86795881984483</v>
+        <v>58.20438581067633</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>53.94740769721612</v>
+        <v>54.15792063394073</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23.36534885235343</v>
+        <v>23.87048216006164</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.320739358690189</v>
+        <v>2.498923577673243</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>6.179551308200181</v>
+        <v>6.911144334530682</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.726809100333669</v>
+        <v>3.818452345496432</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.782398394354523</v>
+        <v>1.682448929646126</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.87011205561043</v>
+        <v>-11.96800912456499</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.899514025178914</v>
+        <v>-3.210304169008046</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.860903503613248</v>
+        <v>4.641005798655466</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12.20889576685611</v>
+        <v>12.28732788211875</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4739522231682526</v>
+        <v>-0.39256732794375</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.151636482069283</v>
+        <v>-0.1261021345804794</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2493608838527507</v>
+        <v>0.2602747293877842</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.5165680076607411</v>
+        <v>0.5545645824416724</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>32.47747950753531</v>
+        <v>31.25221173959416</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>28.47815716964554</v>
+        <v>27.77284485226099</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>38.77165741035541</v>
+        <v>37.6383052643084</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>34.83049979948347</v>
+        <v>36.6381261323782</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.486839889817238</v>
+        <v>1.611661089758121</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.677695866562679</v>
+        <v>1.669019727356773</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.640623180688527</v>
+        <v>3.621304691388812</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.294474270074527</v>
+        <v>2.504940184083361</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>14.03645001400991</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.8994420290378002</v>
+        <v>-0.8994420290378113</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02246335058143301</v>
@@ -949,7 +949,7 @@
         <v>0.6848910314511906</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.02744476981414255</v>
+        <v>-0.02744476981414288</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.58986039388464</v>
+        <v>-10.35954501668921</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.370268453723594</v>
+        <v>-4.644663008218053</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.038038737069307</v>
+        <v>3.195057557234352</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-7.990502358443886</v>
+        <v>-8.543253520398306</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3189362776681202</v>
+        <v>-0.3439950150061306</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1316449146639287</v>
+        <v>-0.1245633024483052</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0861930583577921</v>
+        <v>0.1315529311579158</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2245046518747994</v>
+        <v>-0.2410283464445593</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.30019127156313</v>
+        <v>10.490057348287</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>24.90503313882801</v>
+        <v>24.20696421213145</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>25.62091710864927</v>
+        <v>26.93084751390406</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.232891381478895</v>
+        <v>6.309916169899044</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4653988087818486</v>
+        <v>0.410164099224703</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9388125253736587</v>
+        <v>0.9223239506929248</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.46899383120284</v>
+        <v>1.480718656845466</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2202106491225006</v>
+        <v>0.2162753342970583</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.257946066426791</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13.99047580224705</v>
+        <v>13.99047580224704</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2406188785861252</v>
@@ -1049,7 +1049,7 @@
         <v>0.03782262208977073</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4040751948972116</v>
+        <v>0.4040751948972114</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.219080718315867</v>
+        <v>-6.773830741205145</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.847084263900022</v>
+        <v>-2.325309198749056</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-9.734632739448632</v>
+        <v>-9.681262371986788</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.900754249191484</v>
+        <v>4.514383826762107</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2228569180616778</v>
+        <v>-0.178005972209945</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.06557332574078849</v>
+        <v>-0.05188648999766769</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2616033764308006</v>
+        <v>-0.2522677827345818</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1202586633724864</v>
+        <v>0.1084116521025961</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>22.5185869980372</v>
+        <v>23.88230052318981</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.72296135120015</v>
+        <v>21.12077422215467</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.60918307112636</v>
+        <v>12.02813749342071</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23.01239753108571</v>
+        <v>22.77682628487359</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.053421514920584</v>
+        <v>1.149287349911963</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7511009174114105</v>
+        <v>0.8046831738074574</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4649767543328407</v>
+        <v>0.4244055152648909</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8398066180362639</v>
+        <v>0.8228160903014583</v>
       </c>
     </row>
     <row r="19">
@@ -1158,20 +1158,20 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-63.21080805341829</v>
+        <v>-65.3169192103521</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>32.30745915865398</v>
+        <v>32.73938690754598</v>
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>-54.17315359497531</v>
+        <v>-53.99268902282653</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.5413636667376017</v>
+        <v>-0.5401752439824987</v>
       </c>
     </row>
     <row r="21">
@@ -1182,20 +1182,20 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>35.963136981009</v>
+        <v>35.99885303379174</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>41.95052368347219</v>
+        <v>41.96324638998193</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>30.36155012115501</v>
+        <v>24.68203562986288</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>1.885483657777747</v>
+        <v>1.098551907058337</v>
       </c>
     </row>
     <row r="22">
@@ -1219,7 +1219,7 @@
         <v>14.48739473774702</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16.44709030522309</v>
+        <v>16.44709030522308</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3045079661633939</v>
@@ -1231,7 +1231,7 @@
         <v>0.688963862843776</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.6626850701341942</v>
+        <v>0.6626850701341939</v>
       </c>
     </row>
     <row r="23">
@@ -1242,28 +1242,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.952677591568895</v>
+        <v>2.673283374930136</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.857229975572967</v>
+        <v>6.242325054273331</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9.030850002276084</v>
+        <v>9.79934128804576</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12.5694961506495</v>
+        <v>12.79920224204773</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.0977716451572941</v>
+        <v>0.08304109875376917</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1912654394873973</v>
+        <v>0.212074263833132</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3678645449763575</v>
+        <v>0.4183287035836357</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.4749430453917619</v>
+        <v>0.4729961690487576</v>
       </c>
     </row>
     <row r="24">
@@ -1274,28 +1274,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.40102292270984</v>
+        <v>14.02045361873967</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.14590993255802</v>
+        <v>17.02911921802875</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19.87854200070539</v>
+        <v>19.02699855054824</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19.84454842458863</v>
+        <v>19.98656317831464</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5638178839822466</v>
+        <v>0.5907594059227268</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7074214300735285</v>
+        <v>0.7348446285522069</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.038371222002667</v>
+        <v>1.008320828049494</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.8894754110148887</v>
+        <v>0.8819317614566714</v>
       </c>
     </row>
     <row r="25">
